--- a/BalanceSheet/CHTR_bal.xlsx
+++ b/BalanceSheet/CHTR_bal.xlsx
@@ -1411,7 +1411,7 @@
         <v>139776000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140300000000.0</v>
+        <v>140297000000.0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>140133000000.0</v>
@@ -3119,10 +3119,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>29037000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>29000000000.0</v>
@@ -3248,10 +3246,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>-4388000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>-5195000000.0</v>
@@ -3377,10 +3373,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>3652000000.0</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
@@ -3527,7 +3521,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6184000000.0</v>
+        <v>27181000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>23805000000.0</v>
@@ -3907,10 +3901,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>188666000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>193731000.0</v>
@@ -4163,10 +4155,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>84115000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>83099000000.0</v>
@@ -4292,10 +4282,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>84887000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>84097000000.0</v>
